--- a/40_Methodik/10_Systemspezifikation/IsyFact-Vorlage-Anforderungsliste.xlsx
+++ b/40_Methodik/10_Systemspezifikation/IsyFact-Vorlage-Anforderungsliste.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\temp\release_ifs_1.3.5\40_Methodik\10_Systemspezifikation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8130" windowHeight="3540" activeTab="5"/>
   </bookViews>
@@ -15,7 +20,7 @@
     <sheet name="Lizenz" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Systemanforderungen!$A$1:$O$5</definedName>
+    <definedName name="_FilterDatabase" localSheetId="2" hidden="1">Systemanforderungen!$A$1:$O$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -294,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -560,24 +565,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,9 +581,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
@@ -1358,14 +1363,14 @@
       <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="22"/>
       <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
     </row>
@@ -1558,14 +1563,14 @@
       <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="32"/>
       <c r="F3" s="26"/>
       <c r="G3" s="27"/>
@@ -1582,14 +1587,14 @@
       <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="32"/>
       <c r="F5" s="26"/>
       <c r="G5" s="27"/>
@@ -1606,14 +1611,14 @@
       <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="51"/>
+      <c r="C7" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="45"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="32"/>
       <c r="F7" s="26"/>
       <c r="G7" s="27"/>
@@ -1630,14 +1635,14 @@
       <c r="B8" s="30"/>
     </row>
     <row r="9" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="32"/>
       <c r="F9" s="26"/>
       <c r="G9" s="27"/>
@@ -1654,14 +1659,14 @@
       <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="45"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="32"/>
       <c r="F11" s="26"/>
       <c r="G11" s="27"/>
@@ -1678,14 +1683,14 @@
       <c r="B12" s="30"/>
     </row>
     <row r="13" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="51"/>
+      <c r="C13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="45"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="38"/>
       <c r="F13" s="26"/>
       <c r="G13" s="27"/>
@@ -1702,14 +1707,14 @@
       <c r="B14" s="30"/>
     </row>
     <row r="15" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="45"/>
+      <c r="D15" s="50"/>
       <c r="E15" s="38"/>
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
@@ -1726,14 +1731,14 @@
       <c r="B16" s="30"/>
     </row>
     <row r="17" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="45"/>
+      <c r="D17" s="50"/>
       <c r="E17" s="38"/>
       <c r="F17" s="26"/>
       <c r="G17" s="27"/>
@@ -1750,14 +1755,14 @@
       <c r="B18" s="30"/>
     </row>
     <row r="19" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44" t="s">
+      <c r="A19" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="45" t="s">
+      <c r="B19" s="51"/>
+      <c r="C19" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="45"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="38"/>
       <c r="F19" s="26"/>
       <c r="G19" s="27"/>
@@ -1793,14 +1798,14 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="45" t="s">
+      <c r="B22" s="51"/>
+      <c r="C22" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="45"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="38"/>
       <c r="F22" s="26"/>
       <c r="G22" s="27"/>
@@ -1817,14 +1822,14 @@
       <c r="B23" s="30"/>
     </row>
     <row r="24" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44" t="s">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="44"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="31"/>
       <c r="F24" s="26"/>
       <c r="G24" s="27"/>
@@ -1841,19 +1846,19 @@
       <c r="B25" s="30"/>
     </row>
     <row r="26" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44" t="s">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="44"/>
+      <c r="D26" s="51"/>
       <c r="E26" s="31"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
       <c r="J26" s="29"/>
       <c r="K26" s="27"/>
       <c r="L26" s="27"/>
@@ -1865,19 +1870,19 @@
       <c r="B27" s="30"/>
     </row>
     <row r="28" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44" t="s">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="51"/>
       <c r="E28" s="37"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
       <c r="J28" s="37"/>
       <c r="K28" s="27"/>
       <c r="L28" s="27"/>
@@ -1889,14 +1894,14 @@
       <c r="B29" s="30"/>
     </row>
     <row r="30" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="51"/>
+      <c r="C30" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="44"/>
+      <c r="D30" s="51"/>
       <c r="E30" s="37"/>
       <c r="F30" s="26"/>
       <c r="G30" s="27"/>
@@ -1913,14 +1918,14 @@
       <c r="B31" s="30"/>
     </row>
     <row r="32" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="A32" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44" t="s">
+      <c r="B32" s="51"/>
+      <c r="C32" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="44"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="31"/>
       <c r="F32" s="26"/>
       <c r="G32" s="27"/>
@@ -1937,10 +1942,10 @@
       <c r="B33" s="30"/>
     </row>
     <row r="34" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="46"/>
+      <c r="B34" s="52"/>
       <c r="C34" s="39"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -1956,14 +1961,14 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="45" t="s">
+      <c r="B35" s="51"/>
+      <c r="C35" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="45"/>
+      <c r="D35" s="50"/>
       <c r="E35" s="38"/>
       <c r="F35" s="26"/>
       <c r="G35" s="27"/>
@@ -1980,19 +1985,19 @@
       <c r="B36" s="30"/>
     </row>
     <row r="37" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44" t="s">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="44"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="37"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
       <c r="J37" s="37"/>
       <c r="K37" s="27"/>
       <c r="L37" s="27"/>
@@ -2004,19 +2009,19 @@
       <c r="B38" s="30"/>
     </row>
     <row r="39" spans="1:15" s="25" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44" t="s">
+      <c r="B39" s="51"/>
+      <c r="C39" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="51"/>
       <c r="E39" s="37"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
-      <c r="I39" s="44"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
       <c r="J39" s="37"/>
       <c r="K39" s="27"/>
       <c r="L39" s="27"/>
@@ -4971,11 +4976,30 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A30:B30"/>
@@ -4992,30 +5016,11 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B4 B33 B45:B1010">
@@ -5250,50 +5255,50 @@
   <sheetData>
     <row r="2" spans="2:2" ht="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="42" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="43" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B7" s="49"/>
+      <c r="B7" s="44"/>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="42" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="43" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="45" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="46" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="46" t="s">
         <v>83</v>
       </c>
     </row>
@@ -5303,7 +5308,7 @@
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="47" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5313,7 +5318,7 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="47" t="s">
         <v>87</v>
       </c>
     </row>
